--- a/output/fit_clients/fit_round_289.xlsx
+++ b/output/fit_clients/fit_round_289.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2051469306.461057</v>
+        <v>2298187997.474942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09012567193637282</v>
+        <v>0.1129791296604363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03219261877476449</v>
+        <v>0.03988289885831459</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1025734655.794312</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2129851151.770354</v>
+        <v>1664504931.560042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1125576269825405</v>
+        <v>0.1210160756311631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03367658497504394</v>
+        <v>0.03785746614145676</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1064925636.054443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4946300874.229115</v>
+        <v>3576426187.605134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125814147482658</v>
+        <v>0.1413940076880797</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02955614998627138</v>
+        <v>0.02553117272557718</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2473150518.330388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4137675039.799221</v>
+        <v>4126550667.16231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08532743036936814</v>
+        <v>0.07544278615134313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03433645579193068</v>
+        <v>0.05061161527011719</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2068837514.491037</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2266614168.839183</v>
+        <v>2855125509.695418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1050254327799449</v>
+        <v>0.1430320653596485</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04362149697149428</v>
+        <v>0.04709414967654618</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1133307085.159372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1909304690.743955</v>
+        <v>2882042336.145859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09651131365709541</v>
+        <v>0.08142798775533834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04220327601414135</v>
+        <v>0.03160535468866865</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>954652415.2423822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2518027317.411748</v>
+        <v>3224757583.770755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1378608914504766</v>
+        <v>0.1955656805859797</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02657360752085346</v>
+        <v>0.02611519968120278</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1259013666.94501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1523280489.674763</v>
+        <v>2226085239.510992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1921033922343793</v>
+        <v>0.1370900995057742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03069846495952482</v>
+        <v>0.0236738279519476</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>761640337.5896916</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3770637849.767038</v>
+        <v>4604905719.827574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1901542449386113</v>
+        <v>0.2114448276081678</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03378620490125789</v>
+        <v>0.03436445098484128</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>122</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1885318928.996339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3965274064.247906</v>
+        <v>4290877826.991265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1674822643679458</v>
+        <v>0.1275421238555207</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04566972932951575</v>
+        <v>0.03076176826730362</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1982637042.361572</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2230450930.327663</v>
+        <v>2301336056.848355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1658061952419506</v>
+        <v>0.1913914544196354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03562652972122997</v>
+        <v>0.03340714009173153</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1115225412.689149</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4011680986.369699</v>
+        <v>3349535718.658845</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08425260816500543</v>
+        <v>0.06190331642276839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02379183015913656</v>
+        <v>0.02962195522313551</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2005840547.522581</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2445080949.874318</v>
+        <v>3908741128.67725</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1469440610107736</v>
+        <v>0.1404482930360843</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03354649788777305</v>
+        <v>0.03514953417333435</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>92</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1222540549.55968</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1379071651.536405</v>
+        <v>1286103099.478875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08172369872685341</v>
+        <v>0.07298794691462483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04604920611448712</v>
+        <v>0.04724227365183826</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>689535883.8505466</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1769022080.326551</v>
+        <v>1764878663.444238</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08447713368413347</v>
+        <v>0.1037622177963341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03591793814487267</v>
+        <v>0.03523182252201181</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>884511136.2785</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3298275420.530013</v>
+        <v>4793696582.35815</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1458285895071276</v>
+        <v>0.1399841569890713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04004688266758242</v>
+        <v>0.03208840984828489</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1649137779.558806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2600438095.487521</v>
+        <v>3427848683.469131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1620784237679436</v>
+        <v>0.1390877798861399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02827765602782154</v>
+        <v>0.03038345313333763</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1300219106.983392</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>945842410.0750117</v>
+        <v>1287945463.620371</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1458143408310345</v>
+        <v>0.1563444653108451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02041925652535163</v>
+        <v>0.0200991753915793</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>472921221.0771101</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2505405860.968812</v>
+        <v>2504129288.232055</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1040637016391014</v>
+        <v>0.1073481687878714</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02710499313786988</v>
+        <v>0.02323410989165215</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1252702903.006656</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2435964839.325556</v>
+        <v>2724963751.012161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09046337889830071</v>
+        <v>0.06850829846556861</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03173686657309142</v>
+        <v>0.03001148230853284</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1217982413.913052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2640961991.927401</v>
+        <v>3967104775.116031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128284106901544</v>
+        <v>0.1357423257876953</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04944589682179783</v>
+        <v>0.05415835906102295</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1320481078.991842</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1413517651.513279</v>
+        <v>1055507792.615555</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1790745890230746</v>
+        <v>0.1572389168753235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03407074688493995</v>
+        <v>0.04039070672628306</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>706758826.2590868</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3770960911.619178</v>
+        <v>2599696559.988015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1263799263374552</v>
+        <v>0.1032296056003902</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02427877225512659</v>
+        <v>0.03539808198313535</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1885480439.207114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1150220130.074513</v>
+        <v>924640862.7457544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1020286531809438</v>
+        <v>0.08602473401881496</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01864073088364927</v>
+        <v>0.02863868550754544</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>575110094.4634786</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1246224754.328719</v>
+        <v>1381949764.984927</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07507517049819679</v>
+        <v>0.1201714337052671</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02732383911280229</v>
+        <v>0.02458358176515423</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>623112409.4939196</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4047874446.325442</v>
+        <v>2961068954.549387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1576567548035826</v>
+        <v>0.11672803949489</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02533937716543324</v>
+        <v>0.01780787348356961</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2023937230.964274</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3428254839.201664</v>
+        <v>3124740236.653113</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1450921924207696</v>
+        <v>0.1400774095040661</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03541449584020315</v>
+        <v>0.03100363908225633</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>96</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1714127467.990502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4679232703.254261</v>
+        <v>5901117562.87136</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138915292618801</v>
+        <v>0.1115195282932517</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03122581234767366</v>
+        <v>0.03262074241615961</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>128</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2339616321.415739</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2022564369.325816</v>
+        <v>2250727317.814513</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1228524805349157</v>
+        <v>0.1379459439299458</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0247195017014179</v>
+        <v>0.0328508163593852</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1011282224.675303</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1454829020.212804</v>
+        <v>1290458600.343544</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06834626425802803</v>
+        <v>0.09636768703724008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04552773924037749</v>
+        <v>0.0321367695353687</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>727414401.5897244</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1873310601.669468</v>
+        <v>1156627315.347565</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1139618741065202</v>
+        <v>0.09705627791178636</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03439585389145729</v>
+        <v>0.02366143801462117</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>936655446.5007248</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2434661421.985625</v>
+        <v>1885965494.094974</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2036235267127148</v>
+        <v>0.1542657674305583</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05950111779378647</v>
+        <v>0.04594670831045279</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1217330754.757054</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1557705058.861586</v>
+        <v>1395993231.415745</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109099183024426</v>
+        <v>0.08822547942365397</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02364989930765539</v>
+        <v>0.01955384101355845</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>778852475.7906332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282923711.525431</v>
+        <v>1034344711.275712</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1011593832896569</v>
+        <v>0.07483584990171153</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03798142636011417</v>
+        <v>0.04189150134836543</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>641461812.2999402</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3016027019.399996</v>
+        <v>2738496969.168199</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1132630542704428</v>
+        <v>0.1472071225345278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02831654321965709</v>
+        <v>0.02134803533657332</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1508013490.34331</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2294619297.17492</v>
+        <v>2194275391.392252</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1020475283809252</v>
+        <v>0.08950053835689022</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03561217326675709</v>
+        <v>0.02786565490545113</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1147309716.379951</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2188409229.525132</v>
+        <v>1385736198.333198</v>
       </c>
       <c r="F38" t="n">
-        <v>0.102156601427266</v>
+        <v>0.08354044063455114</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03440831863134716</v>
+        <v>0.03074697375652776</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1094204566.772086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1825047079.299166</v>
+        <v>2216865696.425319</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1902047239399983</v>
+        <v>0.1472857277089432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03169152558554587</v>
+        <v>0.02008123103962269</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>912523560.7379838</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1344999700.757506</v>
+        <v>1308625556.091681</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1329355498384005</v>
+        <v>0.1490198830436655</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04007327426813827</v>
+        <v>0.04063498683485701</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>672499855.3571357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1930569425.67941</v>
+        <v>2851422248.379683</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1604720286393162</v>
+        <v>0.1158130218873489</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0333457209433434</v>
+        <v>0.04056873315228175</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>71</v>
-      </c>
-      <c r="J41" t="n">
-        <v>965284793.8620365</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2759805877.880505</v>
+        <v>3290223220.626544</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09127835263993499</v>
+        <v>0.09303400223993323</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04270901534662986</v>
+        <v>0.04614466811608169</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>96</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1379902882.850311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2894049259.993924</v>
+        <v>2010515555.661317</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1764677839930217</v>
+        <v>0.135575802010858</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02295999830272106</v>
+        <v>0.02431678047072413</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>105</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1447024639.04598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634059294.640896</v>
+        <v>1916300754.073707</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08647275284928044</v>
+        <v>0.0648853110832332</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02608836161753789</v>
+        <v>0.03027509330859334</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>817029680.6449832</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1861206229.455235</v>
+        <v>1810973285.699175</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143296030654444</v>
+        <v>0.1318603296024415</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03491242583838595</v>
+        <v>0.05036331308582676</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>930603091.583064</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4687271745.506984</v>
+        <v>4289335966.277465</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1536542972060478</v>
+        <v>0.1616910187974539</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04792770377041904</v>
+        <v>0.05663716047930942</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>103</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2343635881.670963</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3646661795.733619</v>
+        <v>3254000156.154135</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1747962259680811</v>
+        <v>0.1861371496030148</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04262933543980992</v>
+        <v>0.05474765116756163</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>77</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1823330876.971617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4159633991.78621</v>
+        <v>3605014066.21685</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089660435332676</v>
+        <v>0.08946723436175202</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03307866737580663</v>
+        <v>0.03047960523091202</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2079817021.007304</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1268205247.474579</v>
+        <v>1785871692.021486</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1811246709732583</v>
+        <v>0.1689538277123478</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03231561564495364</v>
+        <v>0.03164963379230767</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>634102691.8093936</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2850689125.477448</v>
+        <v>3466025231.084963</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1568731979819435</v>
+        <v>0.1754154204595894</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03270221814060901</v>
+        <v>0.04675404976886034</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>98</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1425344633.184158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1316398861.504117</v>
+        <v>1016361182.290839</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1540389213309706</v>
+        <v>0.1480302501114928</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04970228625616099</v>
+        <v>0.03998085148743379</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>658199463.4302758</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4720349900.354725</v>
+        <v>3214679229.743383</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08956404027626916</v>
+        <v>0.1319479906608465</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04815743313289853</v>
+        <v>0.0556919290677905</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>119</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2360174964.259856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2377293357.506279</v>
+        <v>3056361479.165179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1442380955895199</v>
+        <v>0.1409828979312682</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02356810697916004</v>
+        <v>0.0239782818023308</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1188646754.20239</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3427079373.69214</v>
+        <v>4938165201.296576</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1580156901017674</v>
+        <v>0.1406291266151701</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03738390136950467</v>
+        <v>0.04105529323235473</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1713539705.904445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4904191666.006804</v>
+        <v>4232506377.466534</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1449976327540188</v>
+        <v>0.197685446258238</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03024519186936731</v>
+        <v>0.03148376202814293</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>76</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2452095847.841376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1296478117.697039</v>
+        <v>1541639338.448619</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1303961050406017</v>
+        <v>0.1265427090959409</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04523149562723727</v>
+        <v>0.05035000654114151</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>648239131.233637</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4529050858.107667</v>
+        <v>3092364674.277305</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1135635853317169</v>
+        <v>0.134853527675515</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02037062560855651</v>
+        <v>0.02166086820529515</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>92</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2264525561.841527</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1718709847.999902</v>
+        <v>1151183725.986436</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1914405531105061</v>
+        <v>0.171893888318149</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03911816739179882</v>
+        <v>0.03226381937932504</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>859354935.1791475</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4010208906.542113</v>
+        <v>4558576620.9034</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09762927481185762</v>
+        <v>0.09986740961043181</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03642684577795766</v>
+        <v>0.03685235541418539</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2005104428.724781</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2673883344.463478</v>
+        <v>2285443520.750748</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1898201856727978</v>
+        <v>0.1479999101778609</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03203508794468576</v>
+        <v>0.0243422024755924</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1336941708.373755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2086506892.679362</v>
+        <v>2592087019.032982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1403894942189085</v>
+        <v>0.1774828063475669</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02956055102541456</v>
+        <v>0.02097249108265223</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1043253512.94762</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1545642216.565538</v>
+        <v>1547739284.127112</v>
       </c>
       <c r="F62" t="n">
-        <v>0.123775313922887</v>
+        <v>0.1498802310641853</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04415197566490647</v>
+        <v>0.03590858987256316</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>772821098.2061704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4736894726.957561</v>
+        <v>4656758242.669127</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09921500098409353</v>
+        <v>0.07235938860362155</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03357101242432169</v>
+        <v>0.03057023946419106</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2368447392.999745</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3466997879.128361</v>
+        <v>4652348723.102468</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1390633739214501</v>
+        <v>0.1777849605247436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0319136350400436</v>
+        <v>0.02826116687490973</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1733498937.925304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5093908009.50106</v>
+        <v>4294410147.177483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1491614435433666</v>
+        <v>0.117165695696263</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03180069292329413</v>
+        <v>0.02200009883255655</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>104</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2546953958.064474</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4008491382.571682</v>
+        <v>4007123169.677382</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1071769810879998</v>
+        <v>0.1184670611243823</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04115339000292559</v>
+        <v>0.04935997969052122</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>84</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2004245665.359617</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2534541186.455235</v>
+        <v>2258928505.257199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06306759306972501</v>
+        <v>0.07470806090828923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04249514538137281</v>
+        <v>0.04983948641960025</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>93</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1267270650.931666</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6010807067.817702</v>
+        <v>4139864784.283325</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1390479064456908</v>
+        <v>0.1554287201518627</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03379510716967884</v>
+        <v>0.03300605878224652</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3005403651.554843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2332997317.512127</v>
+        <v>1886604861.834166</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1284487038896619</v>
+        <v>0.1510575363500023</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04238264348183284</v>
+        <v>0.03830013708938739</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1166498706.747006</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3021127209.64466</v>
+        <v>2243909869.776371</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08774732151743944</v>
+        <v>0.08478905134767338</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03778505874141189</v>
+        <v>0.04014154447796723</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1510563583.1467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5085303670.618742</v>
+        <v>3859387959.032056</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1394473959867817</v>
+        <v>0.167813288141434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03027580032465487</v>
+        <v>0.03009052587126983</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>106</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2542651947.417318</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1731396702.013917</v>
+        <v>1870527524.096478</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08991354563265018</v>
+        <v>0.1052207619655048</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04273439688904632</v>
+        <v>0.04403982686364658</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>865698340.6700448</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3241045548.859165</v>
+        <v>3580174614.84556</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06835360566897662</v>
+        <v>0.1065365735130443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04425607445018666</v>
+        <v>0.04854139190314278</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1620522748.346243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3304146016.553272</v>
+        <v>2533785634.27141</v>
       </c>
       <c r="F74" t="n">
-        <v>0.172193564983419</v>
+        <v>0.1581547962547565</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03136909467851412</v>
+        <v>0.028895169428023</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>98</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1652073047.347155</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1566026838.567092</v>
+        <v>2264555715.086411</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1622266287119698</v>
+        <v>0.1110960949200523</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02297097566845283</v>
+        <v>0.02842254433645104</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>783013424.1529145</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3567681066.626752</v>
+        <v>4080093490.262369</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09113288084326542</v>
+        <v>0.1019817139417483</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03080138897726437</v>
+        <v>0.02149030128624081</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1783840499.903656</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2031819727.637562</v>
+        <v>1708146670.285898</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1683514369037319</v>
+        <v>0.1568208004892965</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02175294480563834</v>
+        <v>0.02099366879845295</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1015909930.004336</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3346452299.954989</v>
+        <v>4285542918.447322</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08279298225812726</v>
+        <v>0.120773927731929</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05475997908423971</v>
+        <v>0.04374610726131659</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>100</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1673226162.45489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1263367882.734907</v>
+        <v>1173881318.638753</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1406932115503209</v>
+        <v>0.1129305630334485</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02894162440692282</v>
+        <v>0.03234427001224544</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>631683934.1835052</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5529634911.01408</v>
+        <v>4268084431.583843</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09124230032044045</v>
+        <v>0.06960322717733232</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03780461181524455</v>
+        <v>0.02538788694520148</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2764817531.042108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3580534662.188316</v>
+        <v>3665457224.439992</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1316917205421038</v>
+        <v>0.08927574464753155</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02687409857527338</v>
+        <v>0.02287454283738602</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1790267278.740344</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5202761828.896745</v>
+        <v>4199962260.738972</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1313166772187358</v>
+        <v>0.1818454288336079</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02248845381337664</v>
+        <v>0.02046862253685792</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>101</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2601380887.055386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2405852469.98747</v>
+        <v>1731449904.092454</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1481921032987728</v>
+        <v>0.1013500105211463</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04486673754835081</v>
+        <v>0.03200451695046811</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1202926270.783995</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1688522542.602434</v>
+        <v>2187499397.205324</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1069864603903996</v>
+        <v>0.073970151999377</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03421382683845273</v>
+        <v>0.04343877166196256</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>844261321.965031</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900328616.044805</v>
+        <v>3416926481.519862</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1251401969482117</v>
+        <v>0.1468889703597223</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04239837528880274</v>
+        <v>0.05065337905921351</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>109</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1450164357.160328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2141534954.109866</v>
+        <v>1773008789.708124</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1148313658465977</v>
+        <v>0.158798778136849</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02339015505569065</v>
+        <v>0.01824693431044527</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>38</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1070767524.361145</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1085192573.528245</v>
+        <v>1116527341.230885</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1857148813906275</v>
+        <v>0.1731072936581564</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03614390412594159</v>
+        <v>0.04108145237842122</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>542596312.927031</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3461434049.134875</v>
+        <v>2517999837.886204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1690862021954518</v>
+        <v>0.1354273954963648</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02678817764053252</v>
+        <v>0.02823178049266161</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>114</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1730717100.611959</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2756576821.698035</v>
+        <v>2990985600.782112</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1296220286831801</v>
+        <v>0.1418465193901337</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03680446402654317</v>
+        <v>0.03817738901579403</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1378288466.79556</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1947219088.932803</v>
+        <v>1364763480.648367</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09210237334574461</v>
+        <v>0.1300165393331116</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04180113946764672</v>
+        <v>0.03444179742485904</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>973609605.0228268</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1636433136.895622</v>
+        <v>1923652053.314441</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1215765092250333</v>
+        <v>0.1669563559170044</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05032045980065927</v>
+        <v>0.05435868938673492</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>818216589.1699879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2299880229.440284</v>
+        <v>1992159711.135115</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1095128397282626</v>
+        <v>0.07822103008862745</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03428710963051049</v>
+        <v>0.03093734370673424</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1149940083.544905</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4088263786.652184</v>
+        <v>3279741887.160679</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1320099375726747</v>
+        <v>0.1019079351311864</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04916911695409044</v>
+        <v>0.0399114723687161</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2044131888.252452</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2295486672.528527</v>
+        <v>2255244616.727381</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238632121824467</v>
+        <v>0.1216118745592948</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03248733987822466</v>
+        <v>0.03177526731559068</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1147743373.086982</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2697929065.875526</v>
+        <v>2084993817.924725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09967298858088131</v>
+        <v>0.09132277475479351</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0429318302272157</v>
+        <v>0.03520585332941237</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>70</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1348964554.627911</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2201722734.197251</v>
+        <v>2064492797.262766</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1407166881681445</v>
+        <v>0.1359589256008925</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03563648974050343</v>
+        <v>0.04507563136169673</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1100861332.535502</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4620178678.782027</v>
+        <v>4161322857.813198</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1555407406952067</v>
+        <v>0.130872076413987</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02150995742777108</v>
+        <v>0.02070127585298736</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2310089445.65216</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3289874899.193241</v>
+        <v>3170477450.392221</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1242394553664735</v>
+        <v>0.08827077047302162</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0281212381021024</v>
+        <v>0.03201031582958347</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1644937453.953988</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3395325474.399477</v>
+        <v>2446375740.194909</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1363191281292714</v>
+        <v>0.1187075641764164</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03187878967085774</v>
+        <v>0.03489336627458704</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>90</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1697662751.776299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3429716652.382033</v>
+        <v>3542860911.921385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1133609561923426</v>
+        <v>0.1638206481846042</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01956282060401089</v>
+        <v>0.02292977297595411</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1714858351.344436</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2359147473.922772</v>
+        <v>3258872102.815732</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155873450638364</v>
+        <v>0.1494236379840701</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05093880564716582</v>
+        <v>0.03833658873957864</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>114</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1179573741.30466</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_289.xlsx
+++ b/output/fit_clients/fit_round_289.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2298187997.474942</v>
+        <v>1912339953.029437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1129791296604363</v>
+        <v>0.1096647194816194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03988289885831459</v>
+        <v>0.04153671920493462</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1664504931.560042</v>
+        <v>1999973305.815447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1210160756311631</v>
+        <v>0.1447230580744528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03785746614145676</v>
+        <v>0.04310771276820923</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3576426187.605134</v>
+        <v>3992692527.816502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1413940076880797</v>
+        <v>0.1006004203940461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02553117272557718</v>
+        <v>0.02813140202585346</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4126550667.16231</v>
+        <v>2750664503.54875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07544278615134313</v>
+        <v>0.07745482136572382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05061161527011719</v>
+        <v>0.04008986199937099</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2855125509.695418</v>
+        <v>2280762164.355951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1430320653596485</v>
+        <v>0.1316134490434324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04709414967654618</v>
+        <v>0.053542994972784</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2882042336.145859</v>
+        <v>2924886731.836692</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08142798775533834</v>
+        <v>0.06898416023176614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03160535468866865</v>
+        <v>0.04903538352929882</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3224757583.770755</v>
+        <v>2396349570.869052</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1955656805859797</v>
+        <v>0.199816308211517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02611519968120278</v>
+        <v>0.02330742807470354</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2226085239.510992</v>
+        <v>1666243931.943567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1370900995057742</v>
+        <v>0.169288481577944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0236738279519476</v>
+        <v>0.02403957206278353</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4604905719.827574</v>
+        <v>4334677998.933502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2114448276081678</v>
+        <v>0.1410912780813932</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03436445098484128</v>
+        <v>0.04237625095350951</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4290877826.991265</v>
+        <v>3110768167.926684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1275421238555207</v>
+        <v>0.1880793753436563</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03076176826730362</v>
+        <v>0.03816127125516598</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2301336056.848355</v>
+        <v>3193628105.262184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913914544196354</v>
+        <v>0.1540115559884231</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03340714009173153</v>
+        <v>0.04369750161004437</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3349535718.658845</v>
+        <v>4552369830.687009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06190331642276839</v>
+        <v>0.08411513597597278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02962195522313551</v>
+        <v>0.01909210968747628</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3908741128.67725</v>
+        <v>2606018772.833382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1404482930360843</v>
+        <v>0.1594782823248788</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03514953417333435</v>
+        <v>0.04218467312295205</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1286103099.478875</v>
+        <v>1509709847.46271</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07298794691462483</v>
+        <v>0.07378958056489598</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04724227365183826</v>
+        <v>0.03375885406819439</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1764878663.444238</v>
+        <v>2282497695.627875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1037622177963341</v>
+        <v>0.09856258201868928</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03523182252201181</v>
+        <v>0.03748660404289834</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4793696582.35815</v>
+        <v>5183816374.142644</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1399841569890713</v>
+        <v>0.1568240930784066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03208840984828489</v>
+        <v>0.05076219845029172</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3427848683.469131</v>
+        <v>3249679195.406881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1390877798861399</v>
+        <v>0.1466737411989855</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03038345313333763</v>
+        <v>0.03298400875685173</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1287945463.620371</v>
+        <v>1366791425.757396</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1563444653108451</v>
+        <v>0.1580633464813263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0200991753915793</v>
+        <v>0.02221016972565567</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2504129288.232055</v>
+        <v>1793195981.331249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1073481687878714</v>
+        <v>0.1527176801360084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02323410989165215</v>
+        <v>0.02707140645114853</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2724963751.012161</v>
+        <v>2165151337.419345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06850829846556861</v>
+        <v>0.09986547342622203</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03001148230853284</v>
+        <v>0.040158916733905</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3967104775.116031</v>
+        <v>3455807369.457509</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1357423257876953</v>
+        <v>0.1414762742968195</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05415835906102295</v>
+        <v>0.04878411469832394</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1055507792.615555</v>
+        <v>1456455475.177148</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1572389168753235</v>
+        <v>0.1130834135639823</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04039070672628306</v>
+        <v>0.05294261404428693</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2599696559.988015</v>
+        <v>2795635547.965404</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1032296056003902</v>
+        <v>0.1203757178694583</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03539808198313535</v>
+        <v>0.03564419156830406</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>924640862.7457544</v>
+        <v>1179808978.703684</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08602473401881496</v>
+        <v>0.09277711453852387</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02863868550754544</v>
+        <v>0.02291070009588702</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381949764.984927</v>
+        <v>988833950.54916</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1201714337052671</v>
+        <v>0.09930912401697904</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02458358176515423</v>
+        <v>0.03531418619330202</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2961068954.549387</v>
+        <v>3829775074.682363</v>
       </c>
       <c r="F27" t="n">
-        <v>0.11672803949489</v>
+        <v>0.142593281169008</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01780787348356961</v>
+        <v>0.01931183070606459</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3124740236.653113</v>
+        <v>2605648207.917919</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1400774095040661</v>
+        <v>0.104102086413949</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03100363908225633</v>
+        <v>0.04595814291288935</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5901117562.87136</v>
+        <v>5005242584.792883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1115195282932517</v>
+        <v>0.1141952881012655</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03262074241615961</v>
+        <v>0.03338588342325947</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2250727317.814513</v>
+        <v>2410889753.288709</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1379459439299458</v>
+        <v>0.1031600422922645</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0328508163593852</v>
+        <v>0.03570484973448018</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290458600.343544</v>
+        <v>948515790.8738904</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09636768703724008</v>
+        <v>0.08245570092321383</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0321367695353687</v>
+        <v>0.04942856741399226</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1156627315.347565</v>
+        <v>1722233222.83693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09705627791178636</v>
+        <v>0.08361031108379802</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02366143801462117</v>
+        <v>0.03145568349098774</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1885965494.094974</v>
+        <v>1891793477.205923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1542657674305583</v>
+        <v>0.1499940306726329</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04594670831045279</v>
+        <v>0.03870226217690138</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1395993231.415745</v>
+        <v>1349084259.170562</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08822547942365397</v>
+        <v>0.1087029670306826</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01955384101355845</v>
+        <v>0.02151956848459146</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1034344711.275712</v>
+        <v>1007263212.950492</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07483584990171153</v>
+        <v>0.1065126045952371</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04189150134836543</v>
+        <v>0.02996577708379786</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2738496969.168199</v>
+        <v>2864837570.779805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472071225345278</v>
+        <v>0.1661586592398811</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02134803533657332</v>
+        <v>0.01952401247423123</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2194275391.392252</v>
+        <v>2627025991.970622</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08950053835689022</v>
+        <v>0.07824661571028818</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02786565490545113</v>
+        <v>0.02832544231367175</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1385736198.333198</v>
+        <v>2020148597.200961</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08354044063455114</v>
+        <v>0.1171329308759858</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03074697375652776</v>
+        <v>0.03556256259262171</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2216865696.425319</v>
+        <v>1600228110.847022</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1472857277089432</v>
+        <v>0.1698810946963203</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02008123103962269</v>
+        <v>0.02974704546569171</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1308625556.091681</v>
+        <v>1365906989.746528</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1490198830436655</v>
+        <v>0.1087202769180885</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04063498683485701</v>
+        <v>0.03988336858513495</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2851422248.379683</v>
+        <v>2603685462.208602</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1158130218873489</v>
+        <v>0.1114463000526195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04056873315228175</v>
+        <v>0.03061814113821113</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3290223220.626544</v>
+        <v>3917003294.807971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09303400223993323</v>
+        <v>0.1097946498300916</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04614466811608169</v>
+        <v>0.04085251312975001</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2010515555.661317</v>
+        <v>2387354357.469447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.135575802010858</v>
+        <v>0.1275007454936197</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02431678047072413</v>
+        <v>0.01747612478634521</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1916300754.073707</v>
+        <v>1600613582.78505</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0648853110832332</v>
+        <v>0.09853700478332006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03027509330859334</v>
+        <v>0.02647334268082168</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1810973285.699175</v>
+        <v>1968383917.933711</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1318603296024415</v>
+        <v>0.1555912993920392</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05036331308582676</v>
+        <v>0.04387525134407496</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4289335966.277465</v>
+        <v>5665058751.852135</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1616910187974539</v>
+        <v>0.1679106975817206</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05663716047930942</v>
+        <v>0.05646739109536811</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3254000156.154135</v>
+        <v>4606824123.06816</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1861371496030148</v>
+        <v>0.1303219118174013</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05474765116756163</v>
+        <v>0.04926675799263422</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3605014066.21685</v>
+        <v>4295719312.619781</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08946723436175202</v>
+        <v>0.1059492995512165</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03047960523091202</v>
+        <v>0.02523885879487747</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1785871692.021486</v>
+        <v>1836909750.461915</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689538277123478</v>
+        <v>0.1232928951707837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03164963379230767</v>
+        <v>0.0292857913378601</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3466025231.084963</v>
+        <v>3821526704.367154</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1754154204595894</v>
+        <v>0.1095917555529324</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04675404976886034</v>
+        <v>0.03318709992531114</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1016361182.290839</v>
+        <v>1405753910.351512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1480302501114928</v>
+        <v>0.138177961733109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03998085148743379</v>
+        <v>0.0419515282342182</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3214679229.743383</v>
+        <v>3290433176.527627</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1319479906608465</v>
+        <v>0.1232527710310978</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0556919290677905</v>
+        <v>0.04465604674670842</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3056361479.165179</v>
+        <v>2510801238.524348</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1409828979312682</v>
+        <v>0.1500248533895854</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0239782818023308</v>
+        <v>0.02376128293941291</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4938165201.296576</v>
+        <v>3973855855.231053</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1406291266151701</v>
+        <v>0.1062594367125925</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04105529323235473</v>
+        <v>0.03278690360611438</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4232506377.466534</v>
+        <v>3177573946.52539</v>
       </c>
       <c r="F55" t="n">
-        <v>0.197685446258238</v>
+        <v>0.2242944358749132</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03148376202814293</v>
+        <v>0.03219979642549271</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1541639338.448619</v>
+        <v>1548261921.098989</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1265427090959409</v>
+        <v>0.1278441910873318</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05035000654114151</v>
+        <v>0.04450628470164784</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3092364674.277305</v>
+        <v>3480075169.233245</v>
       </c>
       <c r="F57" t="n">
-        <v>0.134853527675515</v>
+        <v>0.1393064447700569</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02166086820529515</v>
+        <v>0.02435513986500304</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1151183725.986436</v>
+        <v>1535200489.290342</v>
       </c>
       <c r="F58" t="n">
-        <v>0.171893888318149</v>
+        <v>0.2016498689036717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03226381937932504</v>
+        <v>0.0371335324487719</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4558576620.9034</v>
+        <v>4111103795.731027</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09986740961043181</v>
+        <v>0.09473785033353269</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03685235541418539</v>
+        <v>0.03179477530719676</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2285443520.750748</v>
+        <v>2366926427.197863</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1479999101778609</v>
+        <v>0.1792659083284789</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0243422024755924</v>
+        <v>0.02132505102742981</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2592087019.032982</v>
+        <v>2820119518.058991</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1774828063475669</v>
+        <v>0.1372503550760913</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02097249108265223</v>
+        <v>0.02328688574677847</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1547739284.127112</v>
+        <v>1757873542.820791</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1498802310641853</v>
+        <v>0.1236136692071014</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03590858987256316</v>
+        <v>0.04146612456793703</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4656758242.669127</v>
+        <v>5095637996.561474</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07235938860362155</v>
+        <v>0.06928413086047619</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03057023946419106</v>
+        <v>0.03131906972854491</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4652348723.102468</v>
+        <v>4960245436.623384</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1777849605247436</v>
+        <v>0.1529824140528779</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02826116687490973</v>
+        <v>0.02809882446897657</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4294410147.177483</v>
+        <v>4128236111.982522</v>
       </c>
       <c r="F65" t="n">
-        <v>0.117165695696263</v>
+        <v>0.109053308410092</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02200009883255655</v>
+        <v>0.02571434315293162</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4007123169.677382</v>
+        <v>4229657528.030652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1184670611243823</v>
+        <v>0.1091565176179204</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04935997969052122</v>
+        <v>0.04601560080829814</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2258928505.257199</v>
+        <v>3499661283.620306</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07470806090828923</v>
+        <v>0.08657567518658649</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04983948641960025</v>
+        <v>0.04856147331599917</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4139864784.283325</v>
+        <v>5278279391.186614</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1554287201518627</v>
+        <v>0.1516175612082199</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03300605878224652</v>
+        <v>0.04601615273583654</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1886604861.834166</v>
+        <v>1968956349.16055</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1510575363500023</v>
+        <v>0.1563278141630829</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03830013708938739</v>
+        <v>0.03679700443952</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2243909869.776371</v>
+        <v>2430277064.754838</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08478905134767338</v>
+        <v>0.0880783543411964</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04014154447796723</v>
+        <v>0.03951543825915567</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3859387959.032056</v>
+        <v>4832001713.264608</v>
       </c>
       <c r="F71" t="n">
-        <v>0.167813288141434</v>
+        <v>0.1396612493327315</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03009052587126983</v>
+        <v>0.0261554886992044</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1870527524.096478</v>
+        <v>1668606439.265794</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1052207619655048</v>
+        <v>0.0978320573984533</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04403982686364658</v>
+        <v>0.03663221607736874</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3580174614.84556</v>
+        <v>3325814111.213013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1065365735130443</v>
+        <v>0.06787112402095612</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04854139190314278</v>
+        <v>0.04231658276094078</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2533785634.27141</v>
+        <v>3415346967.58505</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1581547962547565</v>
+        <v>0.131258547899936</v>
       </c>
       <c r="G74" t="n">
-        <v>0.028895169428023</v>
+        <v>0.02801239098541464</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2264555715.086411</v>
+        <v>1876894807.175177</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1110960949200523</v>
+        <v>0.1584745837134562</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02842254433645104</v>
+        <v>0.02644440183681657</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4080093490.262369</v>
+        <v>3488858705.444037</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1019817139417483</v>
+        <v>0.1249123140976854</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02149030128624081</v>
+        <v>0.03306741350267101</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1708146670.285898</v>
+        <v>1582237254.300725</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1568208004892965</v>
+        <v>0.1793528242569136</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02099366879845295</v>
+        <v>0.02900218806284376</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4285542918.447322</v>
+        <v>4108434625.478569</v>
       </c>
       <c r="F78" t="n">
-        <v>0.120773927731929</v>
+        <v>0.08669309690896369</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04374610726131659</v>
+        <v>0.03613115799931756</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1173881318.638753</v>
+        <v>1817447878.885134</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1129305630334485</v>
+        <v>0.1390612065512189</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03234427001224544</v>
+        <v>0.02800459764990609</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4268084431.583843</v>
+        <v>5182283286.609652</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06960322717733232</v>
+        <v>0.06816402859027866</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02538788694520148</v>
+        <v>0.03357795262948828</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3665457224.439992</v>
+        <v>3494560784.095864</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08927574464753155</v>
+        <v>0.09052657348510262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02287454283738602</v>
+        <v>0.03117585104918061</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4199962260.738972</v>
+        <v>4131497714.960715</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1818454288336079</v>
+        <v>0.2150209176775262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02046862253685792</v>
+        <v>0.02472983602364198</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1731449904.092454</v>
+        <v>2163500286.847823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1013500105211463</v>
+        <v>0.10694955874699</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03200451695046811</v>
+        <v>0.04306623765721956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2187499397.205324</v>
+        <v>2030974113.744467</v>
       </c>
       <c r="F84" t="n">
-        <v>0.073970151999377</v>
+        <v>0.1094338846392693</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04343877166196256</v>
+        <v>0.04057308008360231</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3416926481.519862</v>
+        <v>2265408469.436714</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1468889703597223</v>
+        <v>0.1665202295044005</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05065337905921351</v>
+        <v>0.04841951951505623</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1773008789.708124</v>
+        <v>2811504438.747399</v>
       </c>
       <c r="F86" t="n">
-        <v>0.158798778136849</v>
+        <v>0.1240796351556671</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01824693431044527</v>
+        <v>0.02328900736732821</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1116527341.230885</v>
+        <v>1449099855.198634</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1731072936581564</v>
+        <v>0.1362897704443937</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04108145237842122</v>
+        <v>0.03823246295512107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2517999837.886204</v>
+        <v>2794605334.571602</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1354273954963648</v>
+        <v>0.1379809774107304</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02823178049266161</v>
+        <v>0.037794060648262</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2990985600.782112</v>
+        <v>3197210867.13791</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1418465193901337</v>
+        <v>0.1174619090744581</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03817738901579403</v>
+        <v>0.02904503422167957</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1364763480.648367</v>
+        <v>1932857118.062633</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1300165393331116</v>
+        <v>0.1037318163721824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03444179742485904</v>
+        <v>0.0445793533721121</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1923652053.314441</v>
+        <v>2041656547.719687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1669563559170044</v>
+        <v>0.1266152658427992</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05435868938673492</v>
+        <v>0.05109864630678338</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1992159711.135115</v>
+        <v>1929417668.686736</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07822103008862745</v>
+        <v>0.1038857730702798</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03093734370673424</v>
+        <v>0.03034700269496301</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3279741887.160679</v>
+        <v>4272248366.305406</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1019079351311864</v>
+        <v>0.1382160145512226</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0399114723687161</v>
+        <v>0.04920187264677014</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2255244616.727381</v>
+        <v>2392926214.72596</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1216118745592948</v>
+        <v>0.1221619964205001</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03177526731559068</v>
+        <v>0.04016187345580031</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2084993817.924725</v>
+        <v>3042694971.854259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09132277475479351</v>
+        <v>0.1043935544770765</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03520585332941237</v>
+        <v>0.03547278434669916</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2064492797.262766</v>
+        <v>1903509932.959082</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359589256008925</v>
+        <v>0.1404488570595322</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04507563136169673</v>
+        <v>0.0383158992703229</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4161322857.813198</v>
+        <v>3582239391.642131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.130872076413987</v>
+        <v>0.137890157295539</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02070127585298736</v>
+        <v>0.02377824129409592</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3170477450.392221</v>
+        <v>2586737074.085268</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08827077047302162</v>
+        <v>0.1240259942441634</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03201031582958347</v>
+        <v>0.02012620245918037</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2446375740.194909</v>
+        <v>2846501496.866558</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1187075641764164</v>
+        <v>0.1435850540409561</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03489336627458704</v>
+        <v>0.02934871572618236</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3542860911.921385</v>
+        <v>4112368290.952775</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1638206481846042</v>
+        <v>0.1250151044493922</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02292977297595411</v>
+        <v>0.02676058450025147</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3258872102.815732</v>
+        <v>3316913615.795057</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1494236379840701</v>
+        <v>0.1876588988015168</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03833658873957864</v>
+        <v>0.0519880324746196</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_289.xlsx
+++ b/output/fit_clients/fit_round_289.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1912339953.029437</v>
+        <v>2502056487.234304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1096647194816194</v>
+        <v>0.09022120015219631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04153671920493462</v>
+        <v>0.03892192202519577</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1999973305.815447</v>
+        <v>1731715264.667234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1447230580744528</v>
+        <v>0.1697473470472722</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04310771276820923</v>
+        <v>0.04651418683520112</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3992692527.816502</v>
+        <v>4182250447.533933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1006004203940461</v>
+        <v>0.1283183203961747</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02813140202585346</v>
+        <v>0.03054939177353383</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>153</v>
+      </c>
+      <c r="J4" t="n">
+        <v>288</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84.30798804763542</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2750664503.54875</v>
+        <v>3656915657.44486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07745482136572382</v>
+        <v>0.07561248421677134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04008986199937099</v>
+        <v>0.04023749469253294</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>118</v>
+      </c>
+      <c r="J5" t="n">
+        <v>289</v>
+      </c>
+      <c r="K5" t="n">
+        <v>101.0281287081251</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2280762164.355951</v>
+        <v>2269934661.850661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1316134490434324</v>
+        <v>0.1007197039920021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053542994972784</v>
+        <v>0.0505555556025654</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2924886731.836692</v>
+        <v>2748478883.328529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06898416023176614</v>
+        <v>0.06791396766185862</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04903538352929882</v>
+        <v>0.04274520026566148</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2396349570.869052</v>
+        <v>3590281648.453173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.199816308211517</v>
+        <v>0.1842105066558684</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02330742807470354</v>
+        <v>0.02194318346575068</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1666243931.943567</v>
+        <v>2136164359.776363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.169288481577944</v>
+        <v>0.1320132325999798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02403957206278353</v>
+        <v>0.02591764112347287</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4334677998.933502</v>
+        <v>3671336666.796181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1410912780813932</v>
+        <v>0.1551832087866239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04237625095350951</v>
+        <v>0.05459599274462756</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>259</v>
+      </c>
+      <c r="J10" t="n">
+        <v>288</v>
+      </c>
+      <c r="K10" t="n">
+        <v>87.30515116852483</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3110768167.926684</v>
+        <v>3978870497.56813</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1880793753436563</v>
+        <v>0.180311822581815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03816127125516598</v>
+        <v>0.0306406666029948</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3193628105.262184</v>
+        <v>2766414476.673499</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1540115559884231</v>
+        <v>0.1898513937659664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04369750161004437</v>
+        <v>0.04802180158661673</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4552369830.687009</v>
+        <v>3576036207.984767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08411513597597278</v>
+        <v>0.06414013116192052</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01909210968747628</v>
+        <v>0.02516969412030491</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>147</v>
+      </c>
+      <c r="J13" t="n">
+        <v>289</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2606018772.833382</v>
+        <v>3644412022.78967</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1594782823248788</v>
+        <v>0.1360997237138074</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04218467312295205</v>
+        <v>0.0342955431949571</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>289</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1509709847.46271</v>
+        <v>1423831675.74522</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07378958056489598</v>
+        <v>0.07297100843203844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03375885406819439</v>
+        <v>0.03727396831113446</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2282497695.627875</v>
+        <v>2643071282.771739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09856258201868928</v>
+        <v>0.08415263253543388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03748660404289834</v>
+        <v>0.05067092864081232</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5183816374.142644</v>
+        <v>3539047297.68898</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1568240930784066</v>
+        <v>0.1226080387608803</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05076219845029172</v>
+        <v>0.04750301863055564</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>137</v>
+      </c>
+      <c r="J17" t="n">
+        <v>289</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3249679195.406881</v>
+        <v>3559281370.821958</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1466737411989855</v>
+        <v>0.1685817618638801</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03298400875685173</v>
+        <v>0.03276604175013791</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>73</v>
+      </c>
+      <c r="J18" t="n">
+        <v>289</v>
+      </c>
+      <c r="K18" t="n">
+        <v>90.65446067643316</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1366791425.757396</v>
+        <v>937285976.1754074</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1580633464813263</v>
+        <v>0.1545867369412552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02221016972565567</v>
+        <v>0.0239949305224311</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1793195981.331249</v>
+        <v>2407041967.864995</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1527176801360084</v>
+        <v>0.1595579921336009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02707140645114853</v>
+        <v>0.02941188446895811</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2165151337.419345</v>
+        <v>1949948601.660918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09986547342622203</v>
+        <v>0.06497834206331153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.040158916733905</v>
+        <v>0.03099856611089928</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3455807369.457509</v>
+        <v>3044650155.024033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1414762742968195</v>
+        <v>0.1137037097928183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04878411469832394</v>
+        <v>0.04118896375088803</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>288</v>
+      </c>
+      <c r="K22" t="n">
+        <v>59.19137959188667</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456455475.177148</v>
+        <v>953421339.2007339</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1130834135639823</v>
+        <v>0.1686794235231454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05294261404428693</v>
+        <v>0.03374493231145009</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2795635547.965404</v>
+        <v>2669663990.873852</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1203757178694583</v>
+        <v>0.1008966413750782</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03564419156830406</v>
+        <v>0.02919500826458325</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>287</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1179808978.703684</v>
+        <v>1043595965.908923</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09277711453852387</v>
+        <v>0.09432175070403749</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02291070009588702</v>
+        <v>0.02917507704718603</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>988833950.54916</v>
+        <v>1288745811.018166</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09930912401697904</v>
+        <v>0.105299780016287</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03531418619330202</v>
+        <v>0.02780337339233904</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3829775074.682363</v>
+        <v>4021035430.111964</v>
       </c>
       <c r="F27" t="n">
-        <v>0.142593281169008</v>
+        <v>0.1182118654015997</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01931183070606459</v>
+        <v>0.02475762936590039</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>118</v>
+      </c>
+      <c r="J27" t="n">
+        <v>289</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2605648207.917919</v>
+        <v>2944541808.982991</v>
       </c>
       <c r="F28" t="n">
-        <v>0.104102086413949</v>
+        <v>0.119784268902831</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04595814291288935</v>
+        <v>0.04484663398390808</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>60</v>
+      </c>
+      <c r="J28" t="n">
+        <v>287</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5005242584.792883</v>
+        <v>5193345915.700495</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1141952881012655</v>
+        <v>0.1215103524564222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03338588342325947</v>
+        <v>0.03775223296573024</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>274</v>
+      </c>
+      <c r="J29" t="n">
+        <v>289</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90.45117922436161</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2410889753.288709</v>
+        <v>2405575127.082893</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1031600422922645</v>
+        <v>0.117881991548624</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03570484973448018</v>
+        <v>0.0364418460145047</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>948515790.8738904</v>
+        <v>954334318.828665</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08245570092321383</v>
+        <v>0.09763009491581991</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04942856741399226</v>
+        <v>0.03280930207329712</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1722233222.83693</v>
+        <v>1528587303.173036</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08361031108379802</v>
+        <v>0.09173124698035179</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03145568349098774</v>
+        <v>0.03363823738375441</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1891793477.205923</v>
+        <v>1945378457.465975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1499940306726329</v>
+        <v>0.1327546518114275</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03870226217690138</v>
+        <v>0.05673688328699665</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1349084259.170562</v>
+        <v>1511407824.230842</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1087029670306826</v>
+        <v>0.08859167579385001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02151956848459146</v>
+        <v>0.02169417501810042</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1007263212.950492</v>
+        <v>1193028785.916902</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1065126045952371</v>
+        <v>0.1112122006999548</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02996577708379786</v>
+        <v>0.03380278598521936</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2864837570.779805</v>
+        <v>2402087548.861811</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1661586592398811</v>
+        <v>0.1410455641609768</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01952401247423123</v>
+        <v>0.02287672707772126</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2627025991.970622</v>
+        <v>2249812842.629554</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07824661571028818</v>
+        <v>0.07375942991957625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02832544231367175</v>
+        <v>0.03632823211150037</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2020148597.200961</v>
+        <v>1399883700.346112</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1171329308759858</v>
+        <v>0.07899236562082836</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03556256259262171</v>
+        <v>0.03443948427193132</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1600228110.847022</v>
+        <v>1732873193.537843</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1698810946963203</v>
+        <v>0.1872909651453418</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02974704546569171</v>
+        <v>0.02848612306496234</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1365906989.746528</v>
+        <v>1212129762.563827</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1087202769180885</v>
+        <v>0.1146782297993806</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03988336858513495</v>
+        <v>0.05743208468092644</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2603685462.208602</v>
+        <v>2133859279.84778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1114463000526195</v>
+        <v>0.1384403741024365</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03061814113821113</v>
+        <v>0.04533488867536884</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3917003294.807971</v>
+        <v>3020023181.881714</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1097946498300916</v>
+        <v>0.1068288913175669</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04085251312975001</v>
+        <v>0.04094006025681337</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>119</v>
+      </c>
+      <c r="J42" t="n">
+        <v>288</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69.47233239641216</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2387354357.469447</v>
+        <v>2400165411.726826</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1275007454936197</v>
+        <v>0.1757098422531632</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01747612478634521</v>
+        <v>0.02336352729866129</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1600613582.78505</v>
+        <v>1919191610.339288</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09853700478332006</v>
+        <v>0.1026474244005192</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02647334268082168</v>
+        <v>0.0278397468302524</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1968383917.933711</v>
+        <v>1561417884.004262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1555912993920392</v>
+        <v>0.1234622016875422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04387525134407496</v>
+        <v>0.05574309543579178</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5665058751.852135</v>
+        <v>4424524354.157997</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1679106975817206</v>
+        <v>0.1098974321032246</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05646739109536811</v>
+        <v>0.04562581230107793</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>170</v>
+      </c>
+      <c r="J46" t="n">
+        <v>289</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4606824123.06816</v>
+        <v>5119716584.746031</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1303219118174013</v>
+        <v>0.1271985432013498</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04926675799263422</v>
+        <v>0.05373405366168991</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>129</v>
+      </c>
+      <c r="J47" t="n">
+        <v>289</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4295719312.619781</v>
+        <v>3084530038.21374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1059492995512165</v>
+        <v>0.07092790558749955</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02523885879487747</v>
+        <v>0.02402747798858682</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>144</v>
+      </c>
+      <c r="J48" t="n">
+        <v>288</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67.23467384930028</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1836909750.461915</v>
+        <v>1441703332.675676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1232928951707837</v>
+        <v>0.1444229740659771</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0292857913378601</v>
+        <v>0.02850676332597614</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3821526704.367154</v>
+        <v>2931439211.2422</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1095917555529324</v>
+        <v>0.1686629527204829</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03318709992531114</v>
+        <v>0.03221873107179753</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>287</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1405753910.351512</v>
+        <v>1261080587.044289</v>
       </c>
       <c r="F51" t="n">
-        <v>0.138177961733109</v>
+        <v>0.1808503840458919</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0419515282342182</v>
+        <v>0.03732995100771694</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3290433176.527627</v>
+        <v>4192925681.214094</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1232527710310978</v>
+        <v>0.1208825883844801</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04465604674670842</v>
+        <v>0.04782646863218518</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>180</v>
+      </c>
+      <c r="J52" t="n">
+        <v>288</v>
+      </c>
+      <c r="K52" t="n">
+        <v>84.97933295837387</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2510801238.524348</v>
+        <v>2859242327.194612</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1500248533895854</v>
+        <v>0.1364578519729617</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02376128293941291</v>
+        <v>0.02528082894628667</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3973855855.231053</v>
+        <v>3315846110.902565</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062594367125925</v>
+        <v>0.1547775782293245</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03278690360611438</v>
+        <v>0.05113556990818176</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>153</v>
+      </c>
+      <c r="J54" t="n">
+        <v>288</v>
+      </c>
+      <c r="K54" t="n">
+        <v>71.98235444050825</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3177573946.52539</v>
+        <v>4689639820.6881</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2242944358749132</v>
+        <v>0.2000061828109748</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03219979642549271</v>
+        <v>0.02989421596083657</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>131</v>
+      </c>
+      <c r="J55" t="n">
+        <v>289</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1548261921.098989</v>
+        <v>1145601476.360278</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1278441910873318</v>
+        <v>0.1396340774028877</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04450628470164784</v>
+        <v>0.04282871159930512</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3480075169.233245</v>
+        <v>3860607515.804762</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1393064447700569</v>
+        <v>0.1600754227668846</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02435513986500304</v>
+        <v>0.02043711070669631</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>117</v>
+      </c>
+      <c r="J57" t="n">
+        <v>289</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1535200489.290342</v>
+        <v>1341604287.427045</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2016498689036717</v>
+        <v>0.1810465092401994</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0371335324487719</v>
+        <v>0.03640774392091708</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4111103795.731027</v>
+        <v>3981979372.775681</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09473785033353269</v>
+        <v>0.08552888303617182</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03179477530719676</v>
+        <v>0.03173717065093885</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>139</v>
+      </c>
+      <c r="J59" t="n">
+        <v>289</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2366926427.197863</v>
+        <v>3234725456.011316</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1792659083284789</v>
+        <v>0.1381682792082173</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02132505102742981</v>
+        <v>0.02823215235843453</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2820119518.058991</v>
+        <v>3245514663.340756</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1372503550760913</v>
+        <v>0.1581457108665263</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02328688574677847</v>
+        <v>0.02387816759171863</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1757873542.820791</v>
+        <v>1446269765.540496</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1236136692071014</v>
+        <v>0.1818473627227728</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04146612456793703</v>
+        <v>0.03354069742954696</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5095637996.561474</v>
+        <v>3844046221.345898</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06928413086047619</v>
+        <v>0.06518005959354238</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03131906972854491</v>
+        <v>0.03041688755116671</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>140</v>
+      </c>
+      <c r="J63" t="n">
+        <v>289</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4960245436.623384</v>
+        <v>3602235626.249653</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1529824140528779</v>
+        <v>0.1286528804171587</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02809882446897657</v>
+        <v>0.02574568498564853</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>142</v>
+      </c>
+      <c r="J64" t="n">
+        <v>288</v>
+      </c>
+      <c r="K64" t="n">
+        <v>84.03982671919302</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4128236111.982522</v>
+        <v>4932795025.980836</v>
       </c>
       <c r="F65" t="n">
-        <v>0.109053308410092</v>
+        <v>0.1492263078661714</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02571434315293162</v>
+        <v>0.03161985917726043</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>231</v>
+      </c>
+      <c r="J65" t="n">
+        <v>288</v>
+      </c>
+      <c r="K65" t="n">
+        <v>87.79722863556273</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4229657528.030652</v>
+        <v>4042979376.506907</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1091565176179204</v>
+        <v>0.1350754453705201</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04601560080829814</v>
+        <v>0.04120035243388601</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>143</v>
+      </c>
+      <c r="J66" t="n">
+        <v>288</v>
+      </c>
+      <c r="K66" t="n">
+        <v>80.02021697702482</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3499661283.620306</v>
+        <v>3153013338.82755</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08657567518658649</v>
+        <v>0.08206905419481522</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04856147331599917</v>
+        <v>0.03219272325098442</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5278279391.186614</v>
+        <v>4261784433.191523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1516175612082199</v>
+        <v>0.1437971786371649</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04601615273583654</v>
+        <v>0.04298478714293674</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>152</v>
+      </c>
+      <c r="J68" t="n">
+        <v>288</v>
+      </c>
+      <c r="K68" t="n">
+        <v>87.07246942863777</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1968956349.16055</v>
+        <v>1722764258.50627</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1563278141630829</v>
+        <v>0.130750183304771</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03679700443952</v>
+        <v>0.05147784176252516</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2430277064.754838</v>
+        <v>2530827571.148564</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0880783543411964</v>
+        <v>0.06667505818995394</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03951543825915567</v>
+        <v>0.03433894889177486</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>286</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4832001713.264608</v>
+        <v>5141792412.291998</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1396612493327315</v>
+        <v>0.1822853265521521</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0261554886992044</v>
+        <v>0.02103417807023652</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>216</v>
+      </c>
+      <c r="J71" t="n">
+        <v>289</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.26902133178305</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1668606439.265794</v>
+        <v>1937291964.889704</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0978320573984533</v>
+        <v>0.06940210747394794</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03663221607736874</v>
+        <v>0.04431293596837365</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3325814111.213013</v>
+        <v>2738046629.680986</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06787112402095612</v>
+        <v>0.07041330865137059</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04231658276094078</v>
+        <v>0.04453856887855615</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3415346967.58505</v>
+        <v>2992109723.620696</v>
       </c>
       <c r="F74" t="n">
-        <v>0.131258547899936</v>
+        <v>0.1560927701441158</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02801239098541464</v>
+        <v>0.02451772114908167</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>77</v>
+      </c>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1876894807.175177</v>
+        <v>1573666876.586137</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1584745837134562</v>
+        <v>0.1671665391615227</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02644440183681657</v>
+        <v>0.02976406414847576</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3488858705.444037</v>
+        <v>5034021745.453315</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1249123140976854</v>
+        <v>0.1010435241770284</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03306741350267101</v>
+        <v>0.0231618210938344</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>135</v>
+      </c>
+      <c r="J76" t="n">
+        <v>289</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1582237254.300725</v>
+        <v>1729855083.697038</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1793528242569136</v>
+        <v>0.1236567551183403</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02900218806284376</v>
+        <v>0.02509196223400622</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4108434625.478569</v>
+        <v>4402796513.578382</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08669309690896369</v>
+        <v>0.121431971544244</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03613115799931756</v>
+        <v>0.04827440989922303</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>144</v>
+      </c>
+      <c r="J78" t="n">
+        <v>289</v>
+      </c>
+      <c r="K78" t="n">
+        <v>88.87181435993735</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1817447878.885134</v>
+        <v>1243931161.5455</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1390612065512189</v>
+        <v>0.118077751963371</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02800459764990609</v>
+        <v>0.03036783681004772</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5182283286.609652</v>
+        <v>3467855278.905103</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06816402859027866</v>
+        <v>0.09519200681305856</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03357795262948828</v>
+        <v>0.02996424773271303</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>141</v>
+      </c>
+      <c r="J80" t="n">
+        <v>289</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3494560784.095864</v>
+        <v>3927991667.403897</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09052657348510262</v>
+        <v>0.1206433462153983</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03117585104918061</v>
+        <v>0.03175589236562983</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>133</v>
+      </c>
+      <c r="J81" t="n">
+        <v>288</v>
+      </c>
+      <c r="K81" t="n">
+        <v>78.77146363470469</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4131497714.960715</v>
+        <v>3727499805.036283</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2150209176775262</v>
+        <v>0.1389307001895574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02472983602364198</v>
+        <v>0.02184414885699961</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>213</v>
+      </c>
+      <c r="J82" t="n">
+        <v>288</v>
+      </c>
+      <c r="K82" t="n">
+        <v>88.11537607259893</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2163500286.847823</v>
+        <v>2369385363.940594</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10694955874699</v>
+        <v>0.1305357304055826</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04306623765721956</v>
+        <v>0.03726207541427916</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2030974113.744467</v>
+        <v>1939799980.311365</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094338846392693</v>
+        <v>0.1111501463086887</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04057308008360231</v>
+        <v>0.0464565701972467</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2265408469.436714</v>
+        <v>2327201592.255522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1665202295044005</v>
+        <v>0.1118649303906065</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04841951951505623</v>
+        <v>0.05478538844780553</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2811504438.747399</v>
+        <v>2639679588.095478</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1240796351556671</v>
+        <v>0.1522142439973879</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02328900736732821</v>
+        <v>0.02181269330686455</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1449099855.198634</v>
+        <v>1043361424.37056</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1362897704443937</v>
+        <v>0.125016517714007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03823246295512107</v>
+        <v>0.02790482000206562</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2794605334.571602</v>
+        <v>2392995753.829956</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1379809774107304</v>
+        <v>0.1567253567375558</v>
       </c>
       <c r="G88" t="n">
-        <v>0.037794060648262</v>
+        <v>0.03346284323806824</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3197210867.13791</v>
+        <v>2885927973.777491</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1174619090744581</v>
+        <v>0.1405136981210831</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02904503422167957</v>
+        <v>0.03426735605793155</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1932857118.062633</v>
+        <v>1493618979.579234</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1037318163721824</v>
+        <v>0.1302086012237935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0445793533721121</v>
+        <v>0.04905830434177213</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2041656547.719687</v>
+        <v>1922229097.02451</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1266152658427992</v>
+        <v>0.1362405015899151</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05109864630678338</v>
+        <v>0.0375377885740685</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1929417668.686736</v>
+        <v>2870749417.034421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038857730702798</v>
+        <v>0.09107945805305633</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03034700269496301</v>
+        <v>0.03492687569616541</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4272248366.305406</v>
+        <v>3211541079.409728</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382160145512226</v>
+        <v>0.1128170049274025</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04920187264677014</v>
+        <v>0.05174497398364047</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>127</v>
+      </c>
+      <c r="J93" t="n">
+        <v>288</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.31472248424902</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2392926214.72596</v>
+        <v>2475552510.504364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221619964205001</v>
+        <v>0.1617513391368461</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04016187345580031</v>
+        <v>0.02793121666035796</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3042694971.854259</v>
+        <v>2784804964.148981</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1043935544770765</v>
+        <v>0.1118457228934501</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03547278434669916</v>
+        <v>0.03190760148107311</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1903509932.959082</v>
+        <v>1454981548.968266</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1404488570595322</v>
+        <v>0.1349415199902908</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0383158992703229</v>
+        <v>0.02902182502031786</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3582239391.642131</v>
+        <v>3362520829.467471</v>
       </c>
       <c r="F97" t="n">
-        <v>0.137890157295539</v>
+        <v>0.1625986789657897</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02377824129409592</v>
+        <v>0.02308197742158419</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>143</v>
+      </c>
+      <c r="J97" t="n">
+        <v>287</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2586737074.085268</v>
+        <v>2739471932.908451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1240259942441634</v>
+        <v>0.1171863968560614</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02012620245918037</v>
+        <v>0.02170041395584445</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>288</v>
+      </c>
+      <c r="K98" t="n">
+        <v>47.74620918839803</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2846501496.866558</v>
+        <v>3388893575.261839</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1435850540409561</v>
+        <v>0.1095070779052271</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02934871572618236</v>
+        <v>0.03551173903816671</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4112368290.952775</v>
+        <v>4140046758.420473</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1250151044493922</v>
+        <v>0.150701821247081</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02676058450025147</v>
+        <v>0.02814773968587615</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>123</v>
+      </c>
+      <c r="J100" t="n">
+        <v>289</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3316913615.795057</v>
+        <v>3053898283.23188</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1876588988015168</v>
+        <v>0.2158790362323307</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0519880324746196</v>
+        <v>0.04373471704445298</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
